--- a/auxillary/data description.xlsx
+++ b/auxillary/data description.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12270" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
     <sheet name="processed" sheetId="2" r:id="rId2"/>
     <sheet name="processed (2)" sheetId="3" r:id="rId3"/>
     <sheet name="output" sheetId="4" r:id="rId4"/>
+    <sheet name="PerTableFields" sheetId="5" r:id="rId5"/>
+    <sheet name="Tabelle2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="247">
   <si>
     <t>Name</t>
   </si>
@@ -708,13 +710,73 @@
   </si>
   <si>
     <t>J/(g*mol)</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>atomic_mass</t>
+  </si>
+  <si>
+    <t>boil</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>cpk_hex</t>
+  </si>
+  <si>
+    <t>discovered_by</t>
+  </si>
+  <si>
+    <t>el_config</t>
+  </si>
+  <si>
+    <t>melt</t>
+  </si>
+  <si>
+    <t>molar_heat</t>
+  </si>
+  <si>
+    <t>named_by</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>spectral_img</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>xpos</t>
+  </si>
+  <si>
+    <t>ypos</t>
+  </si>
+  <si>
+    <t>shells</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Helium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,13 +792,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -751,9 +832,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1036,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,7 +2791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
@@ -3396,4 +3480,616 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE(":",A1, " =&gt; :",B1)</f>
+        <v>:atomic_mass =&gt; :atomic_weight</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C6" si="0">CONCATENATE(":",A2, " =&gt; :",B2)</f>
+        <v>:boil =&gt; :boiling_point</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>:cpk_hex =&gt; :cpk_color</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>:discovered_by =&gt; :discoverers</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>:melt =&gt; :melting_point</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>:number =&gt; :atomic_number</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B6">
+    <sortCondition ref="A1:A6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>